--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -411,12 +411,6 @@
     <t>FragmentSearch</t>
   </si>
   <si>
-    <t>setUpSuggestions: fill with real data</t>
-  </si>
-  <si>
-    <t>lazy load implementation</t>
-  </si>
-  <si>
     <t>SearchBusinessByLocation</t>
   </si>
   <si>
@@ -436,16 +430,10 @@
     <t>business' owner shouldn't be able to review his own business</t>
   </si>
   <si>
-    <t>getResult</t>
-  </si>
-  <si>
     <t>Download pictures in all adapters</t>
   </si>
   <si>
     <t>EditeReview</t>
-  </si>
-  <si>
-    <t>ForceClose</t>
   </si>
   <si>
     <t>close popup after action
@@ -453,10 +441,6 @@
   </si>
   <si>
     <t>like post</t>
-  </si>
-  <si>
-    <t>post can't be liked by post's owner. Check owner of post
-if post liked by user, the user shouldn't be able to like it again. Check post.isLiked</t>
   </si>
   <si>
     <t>getResult: doesn't show the result</t>
@@ -475,12 +459,31 @@
 answerRequestFriendShip
 rateBusiness(review without text)</t>
   </si>
+  <si>
+    <t>setUpSuggestions: fill with real data  ( اطلاعات چه هستند؟ حضورأ با آقای ریحانی صحبت میکنم )</t>
+  </si>
+  <si>
+    <t>lazy load implementation ( اطلاعات تودو شد لطفأ مشاهده کنید )</t>
+  </si>
+  <si>
+    <t>ForceClose // لطفا اگه باز هم مشکل وجود داشت اطلاع بدین. قاعدتأ حله</t>
+  </si>
+  <si>
+    <t>getResult  (lotfan grid adapters result ro bebinid, todo gozashtam )</t>
+  </si>
+  <si>
+    <t>تمامی موارد درون آداپتر ها و فایل DIALOGS قابل ردیابی و پیاده سازی هستند. با پیاده سازی وب سرویس ها notify ها را نیز اضافه خواهم کرد.</t>
+  </si>
+  <si>
+    <t>post can't be liked by post's owner. Check owner of post نیازمند داشتن یوزر آیدی شخص قرار دهنده ی پست هستیم
+if post liked by user, the user shouldn't be able to like it again. Check post.isLiked این مسأله در سمت وب سرویس قبل از ثبت لایک بررسی میگردد</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,8 +498,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,7 +514,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,25 +555,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,607 +896,703 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="107.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="36.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="107.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="9">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B72" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="B76" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="B78" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    <row r="80" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="B80" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+    </row>
     <row r="85" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -477,6 +477,15 @@
   <si>
     <t>post can't be liked by post's owner. Check owner of post نیازمند داشتن یوزر آیدی شخص قرار دهنده ی پست هستیم
 if post liked by user, the user shouldn't be able to like it again. Check post.isLiked این مسأله در سمت وب سرویس قبل از ثبت لایک بررسی میگردد</t>
+  </si>
+  <si>
+    <t>FragmentSearchResult</t>
+  </si>
+  <si>
+    <t>lazy load implementation</t>
+  </si>
+  <si>
+    <t>list scroll: FORCE CLOSE</t>
   </si>
 </sst>
 </file>
@@ -896,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,10 +1599,21 @@
       <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-    </row>
-    <row r="85" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A84" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>list scroll: FORCE CLOSE</t>
+  </si>
+  <si>
+    <t>implement getTimeLinePosts(wall posts)</t>
+  </si>
+  <si>
+    <t>probably will implement in phase2</t>
   </si>
 </sst>
 </file>
@@ -905,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,6 +1505,9 @@
       <c r="B70" s="10" t="s">
         <v>134</v>
       </c>
+      <c r="C70" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
@@ -1614,7 +1623,14 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
     <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="143">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -228,22 +228,7 @@
     <t>setAlarmReciever</t>
   </si>
   <si>
-    <t>registerUser</t>
-  </si>
-  <si>
     <t>RegisterUser: TODO</t>
-  </si>
-  <si>
-    <t>getBusinessCategory</t>
-  </si>
-  <si>
-    <t>user table</t>
-  </si>
-  <si>
-    <t>The sex field shouldn't be boolean. It should be like:
-male
-female
-none (when the user didn't choose the sex)</t>
   </si>
   <si>
     <t>Dialogs.showMessages()</t>
@@ -267,20 +252,6 @@
   <si>
     <t>address
 hashtag List</t>
-  </si>
-  <si>
-    <t>ErrorCode: is not an integer code when ProfilePicture 
-is a empty string.It is possible to not choose picture for profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"resultString" returned by registerUser:
-"Result":"1 sample token"
-which is wrong. It should be like:
-"Result":{"access_token":"1 sample token","userId":"10"}
-</t>
-  </si>
-  <si>
-    <t>The result includes all categories and subcategroies. It should returns just categories</t>
   </si>
   <si>
     <t>EditBusinessProfile</t>
@@ -482,9 +453,6 @@
     <t>FragmentSearchResult</t>
   </si>
   <si>
-    <t>lazy load implementation</t>
-  </si>
-  <si>
     <t>list scroll: FORCE CLOSE</t>
   </si>
   <si>
@@ -492,6 +460,26 @@
   </si>
   <si>
     <t>probably will implement in phase2</t>
+  </si>
+  <si>
+    <t>Done. Check the code</t>
+  </si>
+  <si>
+    <t>Do like FragmentResult</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>GetBusinessPosts &amp; GetUserSharedPosts</t>
+  </si>
+  <si>
+    <t>add user.id and userName to return result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post object has a field named "isLiked". It determine current user liked the 
+post or not. If "isLiked" equals "True", the user shouldn't be able to like. It means like button onClickListener do nothing. If "isLiked" equals "False", the user can like the post. After liking, the value of "isLiked" in mentioned post object should change to "True" in array list.
+</t>
   </si>
 </sst>
 </file>
@@ -520,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +545,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -570,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -603,6 +597,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,16 +907,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="107.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="64.7109375" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -1228,26 +1226,26 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -1258,39 +1256,39 @@
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>35</v>
@@ -1299,32 +1297,32 @@
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
@@ -1334,7 +1332,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C47" s="4"/>
     </row>
@@ -1345,10 +1343,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C49" s="4"/>
     </row>
@@ -1359,53 +1357,53 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C56" s="4"/>
     </row>
@@ -1414,31 +1412,31 @@
         <v>38</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
@@ -1448,7 +1446,7 @@
         <v>38</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C61" s="4"/>
     </row>
@@ -1457,13 +1455,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
@@ -1473,7 +1471,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C64" s="4"/>
     </row>
@@ -1482,7 +1480,7 @@
         <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C65" s="4"/>
     </row>
@@ -1500,99 +1498,111 @@
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>135</v>
+      <c r="B71" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>135</v>
+      <c r="B73" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>137</v>
+      <c r="B76" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B77" s="13"/>
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1600,7 +1610,7 @@
         <v>62</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1608,29 +1618,22 @@
       <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>141</v>
+      <c r="A84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1647,6 @@
     <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1656,7 +1658,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,37 +1668,22 @@
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1789,37 +1776,37 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -480,6 +480,18 @@
     <t xml:space="preserve">Post object has a field named "isLiked". It determine current user liked the 
 post or not. If "isLiked" equals "True", the user shouldn't be able to like. It means like button onClickListener do nothing. If "isLiked" equals "False", the user can like the post. After liking, the value of "isLiked" in mentioned post object should change to "True" in array list.
 </t>
+  </si>
+  <si>
+    <t>wall adapter</t>
+  </si>
+  <si>
+    <t>change adapter to display wall posts properly</t>
+  </si>
+  <si>
+    <t>getPost</t>
+  </si>
+  <si>
+    <t>implement isLiked</t>
   </si>
 </sst>
 </file>
@@ -909,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1645,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1657,9 +1676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1692,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,6 +1826,16 @@
         <v>108</v>
       </c>
     </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,6 @@
     <t>lazy load implementation ( اطلاعات تودو شد لطفأ مشاهده کنید )</t>
   </si>
   <si>
-    <t>ForceClose // لطفا اگه باز هم مشکل وجود داشت اطلاع بدین. قاعدتأ حله</t>
-  </si>
-  <si>
     <t>getResult  (lotfan grid adapters result ro bebinid, todo gozashtam )</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>implement isLiked</t>
+  </si>
+  <si>
+    <t>ForceClose</t>
   </si>
 </sst>
 </file>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1516,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>128</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1570,10 +1570,10 @@
         <v>53</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>122</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1603,10 +1603,10 @@
         <v>124</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>126</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1626,15 +1626,15 @@
       </c>
     </row>
     <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
     </row>
     <row r="84" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1642,15 +1642,15 @@
         <v>38</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1687,10 +1687,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,12 +1828,12 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -468,12 +468,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>GetBusinessPosts &amp; GetUserSharedPosts</t>
-  </si>
-  <si>
-    <t>add user.id and userName to return result</t>
-  </si>
-  <si>
     <t xml:space="preserve">Post object has a field named "isLiked". It determine current user liked the 
 post or not. If "isLiked" equals "True", the user shouldn't be able to like. It means like button onClickListener do nothing. If "isLiked" equals "False", the user can like the post. After liking, the value of "isLiked" in mentioned post object should change to "True" in array list.
 </t>
@@ -492,13 +486,64 @@
   </si>
   <si>
     <t>ForceClose</t>
+  </si>
+  <si>
+    <t>get time picker is slow</t>
+  </si>
+  <si>
+    <t>after adding new business, business listview doesn't update</t>
+  </si>
+  <si>
+    <t>insert null instead of BusinessId</t>
+  </si>
+  <si>
+    <t>ProgressDialog</t>
+  </si>
+  <si>
+    <t>disable dialog with back</t>
+  </si>
+  <si>
+    <t>EditUserProfile</t>
+  </si>
+  <si>
+    <t>don't display null if string is empty</t>
+  </si>
+  <si>
+    <t>there is no way to change email</t>
+  </si>
+  <si>
+    <t>Remove all test parts</t>
+  </si>
+  <si>
+    <t>GetBusinessHomeInfo</t>
+  </si>
+  <si>
+    <t>user profilePictureId not profilePicture</t>
+  </si>
+  <si>
+    <t>display coverPicture with a permanent picture</t>
+  </si>
+  <si>
+    <t>Update business profile info</t>
+  </si>
+  <si>
+    <t>remove businessUserName field.</t>
+  </si>
+  <si>
+    <t>Assign business info in update business profile info in getResult</t>
+  </si>
+  <si>
+    <t>Close all p dialogs in getError()</t>
+  </si>
+  <si>
+    <t>Set business category and subcategory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,62 +551,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -576,44 +572,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,717 +888,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="107.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="36.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="13"/>
-    </row>
-    <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="B78" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="C80" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>132</v>
       </c>
@@ -1637,7 +1514,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
@@ -1645,27 +1522,30 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1674,33 +1554,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="87.5703125" customWidth="1"/>
     <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,12 +1775,12 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -536,7 +536,22 @@
     <t>Close all p dialogs in getError()</t>
   </si>
   <si>
-    <t>Set business category and subcategory</t>
+    <t>set business category and subcategory base on business profile info</t>
+  </si>
+  <si>
+    <t>set user sex base on user profile info</t>
+  </si>
+  <si>
+    <t>Update user profile Info</t>
+  </si>
+  <si>
+    <t>Update user profile Info: dialog birthdate</t>
+  </si>
+  <si>
+    <t>fill year, month and day edittext with user birthday info</t>
+  </si>
+  <si>
+    <t>change profile picutre in profile fragment after updating</t>
   </si>
 </sst>
 </file>
@@ -888,15 +903,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="107.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="64.7109375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
@@ -1546,6 +1561,112 @@
         <v>146</v>
       </c>
     </row>
+    <row r="96" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1554,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,90 +1687,7 @@
     <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t>after adding new business, business listview doesn't update</t>
-  </si>
-  <si>
-    <t>insert null instead of BusinessId</t>
   </si>
   <si>
     <t>ProgressDialog</t>
@@ -903,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,23 +1560,23 @@
     </row>
     <row r="96" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>151</v>
@@ -1587,9 +1584,6 @@
     </row>
     <row r="99" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>150</v>
-      </c>
-      <c r="B99" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1597,10 +1591,13 @@
       <c r="A100" t="s">
         <v>153</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="101" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>155</v>
@@ -1608,15 +1605,15 @@
     </row>
     <row r="102" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>158</v>
@@ -1624,20 +1621,20 @@
     </row>
     <row r="104" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>156</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>157</v>
+      <c r="A106" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>161</v>
@@ -1648,23 +1645,15 @@
         <v>163</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="168">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -550,15 +550,28 @@
   <si>
     <t>change profile picutre in profile fragment after updating</t>
   </si>
+  <si>
+    <t>GetBusinessProfileInfo</t>
+  </si>
+  <si>
+    <t>assign business info</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -584,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -596,6 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,6 +1668,14 @@
       </c>
       <c r="B108" s="2" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -564,12 +564,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -584,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -596,6 +608,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,7 +921,7 @@
   <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,63 +1561,64 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1620,9 +1639,10 @@
       </c>
     </row>
     <row r="104" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>159</v>
       </c>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -1633,18 +1653,18 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="6" t="s">
         <v>164</v>
       </c>
     </row>

--- a/app/src/ToDo.xlsx
+++ b/app/src/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -25,15 +25,6 @@
   </si>
   <si>
     <t>Display error message</t>
-  </si>
-  <si>
-    <t>Modify ForgetPassword webservice url</t>
-  </si>
-  <si>
-    <t>Uncomment forgetPassword dialog in ActivityLogi.forget()</t>
-  </si>
-  <si>
-    <t>ActivityLogin.login() : remove comments and sample data</t>
   </si>
   <si>
     <t>ActivityUserProfileEdit</t>
@@ -57,9 +48,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>test ActivityUserProfileEdit</t>
-  </si>
-  <si>
     <t>ActivityNewBusiness_Step1</t>
   </si>
   <si>
@@ -99,22 +87,9 @@
     <t>where is hashtag list?</t>
   </si>
   <si>
-    <t>Login: change LoginInfo.login() to save user.id and access_token</t>
-  </si>
-  <si>
-    <t>RegisterUser : change LoginInfo.login() to save user.id and access_token</t>
-  </si>
-  <si>
-    <t>RegisterBusiness : change LoginInfo.login() to save business_id</t>
-  </si>
-  <si>
     <t>Where is delete business option</t>
   </si>
   <si>
-    <t>ActivityRegister.help()
-ActivityRegister.register(): remove comments</t>
-  </si>
-  <si>
     <t>HomePostsAdapter</t>
   </si>
   <si>
@@ -151,26 +126,14 @@
     <t>there is no option to request user email confirmation</t>
   </si>
   <si>
-    <t>FragmentProfile: onCreate()</t>
-  </si>
-  <si>
     <t>FragmentBusinesses</t>
   </si>
   <si>
     <t>ActivitySetting</t>
-  </si>
-  <si>
-    <t>ActivitySetting: save()</t>
   </si>
   <si>
     <t>How did you implement lazy load
 in post adapter?</t>
-  </si>
-  <si>
-    <t>FragmentProfile: sendFollowRequest()</t>
-  </si>
-  <si>
-    <t>Loadings</t>
   </si>
   <si>
     <t>FragmentFollowers</t>
@@ -204,9 +167,6 @@
     <t>FragmentUserReviews</t>
   </si>
   <si>
-    <t>Get user's business</t>
-  </si>
-  <si>
     <t>There is no option to see blocked
  user list in business profile page</t>
   </si>
@@ -225,12 +185,6 @@
     <t>FragmentRequests</t>
   </si>
   <si>
-    <t>setAlarmReciever</t>
-  </si>
-  <si>
-    <t>RegisterUser: TODO</t>
-  </si>
-  <si>
     <t>Dialogs.showMessages()</t>
   </si>
   <si>
@@ -239,12 +193,6 @@
   </si>
   <si>
     <t>in ActivityLogin doesn't work</t>
-  </si>
-  <si>
-    <t>ActivityUserProfileEdit: Save(): TODO</t>
-  </si>
-  <si>
-    <t>GetBusinessCategory</t>
   </si>
   <si>
     <t>RegisterBusiness</t>
@@ -288,9 +236,6 @@
     <t>submit()</t>
   </si>
   <si>
-    <t>Test updatePost in code</t>
-  </si>
-  <si>
     <t>ActivityNewPost_Step1</t>
   </si>
   <si>
@@ -337,9 +282,6 @@
 webservice</t>
   </si>
   <si>
-    <t>ActivityNewBusiness_step1: todo</t>
-  </si>
-  <si>
     <t>myOwnBusiness: myOwnBusiness</t>
   </si>
   <si>
@@ -355,13 +297,7 @@
     <t>user shouldn't be able to insert new businessUserName</t>
   </si>
   <si>
-    <t>Add Post picture</t>
-  </si>
-  <si>
     <t>validate price field in add post</t>
-  </si>
-  <si>
-    <t>ActivityNewPost_step1: submit()</t>
   </si>
   <si>
     <t>profileId? Where you initialize it?</t>
@@ -479,12 +415,6 @@
     <t>change adapter to display wall posts properly</t>
   </si>
   <si>
-    <t>getPost</t>
-  </si>
-  <si>
-    <t>implement isLiked</t>
-  </si>
-  <si>
     <t>ForceClose</t>
   </si>
   <si>
@@ -555,13 +485,37 @@
   </si>
   <si>
     <t>assign business info</t>
+  </si>
+  <si>
+    <t>Done : 10-12</t>
+  </si>
+  <si>
+    <t>close change email dialog after submit and displaying second dialog</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>close change password dialog after submit and displaying second dialog</t>
+  </si>
+  <si>
+    <t>check ActivityNewBusiness_Step1 line 84</t>
+  </si>
+  <si>
+    <t>Test UnFollowBusiness webservice</t>
+  </si>
+  <si>
+    <t>Test RequestCancelFriendship</t>
+  </si>
+  <si>
+    <t>Uncomment AlarmManager in AcitivityMain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,19 +529,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -604,9 +573,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -614,13 +580,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,770 +890,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="47.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B58" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="2" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B78" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="2" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>42014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="2" t="s">
+    </row>
+    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="2" t="s">
+    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="2" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="2" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="2" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>42045</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5" t="s">
+      <c r="B112" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="C112" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="7" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>167</v>
+      <c r="C113" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1701,9 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1718,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,117 +1739,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
